--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="card_hero" sheetId="1" r:id="rId1"/>
+    <sheet name="英雄种族" sheetId="2" r:id="rId2"/>
+    <sheet name="英雄五行" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -126,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,8 +148,8 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每级个属性成长值
-攻击、法术、护甲、魔抗、生命</t>
+{力量系数、智力系数、敏捷系数、精神系数、体质系数}
+万分比</t>
         </r>
       </text>
     </comment>
@@ -277,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="133">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,346 +425,338 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>hero_intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_intro_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_intro_2</t>
+  </si>
+  <si>
+    <t>hero_intro_3</t>
+  </si>
+  <si>
+    <t>hero_intro_4</t>
+  </si>
+  <si>
+    <t>hero_intro_5</t>
+  </si>
+  <si>
+    <t>hero_intro_6</t>
+  </si>
+  <si>
+    <t>hero_intro_7</t>
+  </si>
+  <si>
+    <t>hero_intro_8</t>
+  </si>
+  <si>
+    <t>hero_intro_9</t>
+  </si>
+  <si>
+    <t>hero_intro_10</t>
+  </si>
+  <si>
+    <t>hero_intro_11</t>
+  </si>
+  <si>
+    <t>hero_intro_12</t>
+  </si>
+  <si>
+    <t>hero_intro_13</t>
+  </si>
+  <si>
+    <t>hero_intro_14</t>
+  </si>
+  <si>
+    <t>hero_intro_15</t>
+  </si>
+  <si>
+    <t>hero_intro_16</t>
+  </si>
+  <si>
+    <t>hero_intro_17</t>
+  </si>
+  <si>
+    <t>hero_intro_18</t>
+  </si>
+  <si>
+    <t>hero_intro_19</t>
+  </si>
+  <si>
+    <t>hero_intro_20</t>
+  </si>
+  <si>
+    <t>hero_intro_21</t>
+  </si>
+  <si>
+    <t>hero_intro_22</t>
+  </si>
+  <si>
+    <t>hero_intro_23</t>
+  </si>
+  <si>
+    <t>hero_intro_24</t>
+  </si>
+  <si>
+    <t>hero_intro_25</t>
+  </si>
+  <si>
+    <t>每级属性点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_lv_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_ini_prop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_int_cri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_skill_char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_recover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energy_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_skill_auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄技能解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_skill_unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄卡图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1=1,2=100,2=100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{200,0,50,45,1830}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性点成长系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_lv_point_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5000,10000,8000,10000,8000}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{2,2,2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_god</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>种族翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙族</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_human</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_ghost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_goblin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_devil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card_hero_race_dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>hero_element_wind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_race_super</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_race_nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_race_animal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_race_magic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>card_hero_race_beast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_element_fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_element_thunder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_element_earth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_element_water</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_intro_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_intro_2</t>
-  </si>
-  <si>
-    <t>hero_intro_3</t>
-  </si>
-  <si>
-    <t>hero_intro_4</t>
-  </si>
-  <si>
-    <t>hero_intro_5</t>
-  </si>
-  <si>
-    <t>hero_intro_6</t>
-  </si>
-  <si>
-    <t>hero_intro_7</t>
-  </si>
-  <si>
-    <t>hero_intro_8</t>
-  </si>
-  <si>
-    <t>hero_intro_9</t>
-  </si>
-  <si>
-    <t>hero_intro_10</t>
-  </si>
-  <si>
-    <t>hero_intro_11</t>
-  </si>
-  <si>
-    <t>hero_intro_12</t>
-  </si>
-  <si>
-    <t>hero_intro_13</t>
-  </si>
-  <si>
-    <t>hero_intro_14</t>
-  </si>
-  <si>
-    <t>hero_intro_15</t>
-  </si>
-  <si>
-    <t>hero_intro_16</t>
-  </si>
-  <si>
-    <t>hero_intro_17</t>
-  </si>
-  <si>
-    <t>hero_intro_18</t>
-  </si>
-  <si>
-    <t>hero_intro_19</t>
-  </si>
-  <si>
-    <t>hero_intro_20</t>
-  </si>
-  <si>
-    <t>hero_intro_21</t>
-  </si>
-  <si>
-    <t>hero_intro_22</t>
-  </si>
-  <si>
-    <t>hero_intro_23</t>
-  </si>
-  <si>
-    <t>hero_intro_24</t>
-  </si>
-  <si>
-    <t>hero_intro_25</t>
-  </si>
-  <si>
-    <t>每级属性点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_lv_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_ini_prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成长属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_up_prop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量恢复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_int_cri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_skill_char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy_recover</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energy_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_skill_auto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄技能解锁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_skill_unlock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄卡图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_rate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[60,0,50,60,900]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <t>[1,2,4]</t>
-  </si>
-  <si>
-    <t>[1,2,5]</t>
-  </si>
-  <si>
-    <t>[1,2,6]</t>
-  </si>
-  <si>
-    <t>[1,2,7]</t>
-  </si>
-  <si>
-    <t>[1,2,8]</t>
-  </si>
-  <si>
-    <t>[1,2,9]</t>
-  </si>
-  <si>
-    <t>[1,2,10]</t>
-  </si>
-  <si>
-    <t>[1,2,11]</t>
-  </si>
-  <si>
-    <t>[1,2,12]</t>
-  </si>
-  <si>
-    <t>[1,2,13]</t>
-  </si>
-  <si>
-    <t>[1,2,14]</t>
-  </si>
-  <si>
-    <t>[1,2,15]</t>
-  </si>
-  <si>
-    <t>[1,2,16]</t>
-  </si>
-  <si>
-    <t>[1,2,17]</t>
-  </si>
-  <si>
-    <t>[1,2,18]</t>
-  </si>
-  <si>
-    <t>[1,2,19]</t>
-  </si>
-  <si>
-    <t>[1,2,20]</t>
-  </si>
-  <si>
-    <t>[1,2,21]</t>
-  </si>
-  <si>
-    <t>[1,2,22]</t>
-  </si>
-  <si>
-    <t>[1,2,23]</t>
-  </si>
-  <si>
-    <t>[1,2,24]</t>
-  </si>
-  <si>
-    <t>[1,2,25]</t>
-  </si>
-  <si>
-    <t>[1,2,26]</t>
-  </si>
-  <si>
-    <t>[1,2,27]</t>
-  </si>
-  <si>
-    <t>{"1":1,"2":100,"2":100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3,0,4,0,50]</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五行翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1130,8 +1124,8 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,14 +1139,14 @@
     <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1161,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -1188,31 +1182,31 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -1220,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
@@ -1244,34 +1238,34 @@
         <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -1338,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -1362,34 +1356,34 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -1405,26 +1399,28 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F5,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_human</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H5,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_wind</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M5" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N5" s="1">
         <v>10</v>
@@ -1433,16 +1429,16 @@
         <v>100</v>
       </c>
       <c r="P5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -1458,26 +1454,28 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>43</v>
+      <c r="G6" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F6,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_human</v>
       </c>
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>48</v>
+      <c r="I6" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H6,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_fire</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M6" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L6" s="1">
+        <v>5</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N6" s="1">
         <v>10</v>
@@ -1486,16 +1484,16 @@
         <v>100</v>
       </c>
       <c r="P6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -1511,26 +1509,28 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
+      <c r="G7" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F7,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_human</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
+      <c r="I7" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H7,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_thunder</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M7" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N7" s="1">
         <v>10</v>
@@ -1539,16 +1539,16 @@
         <v>100</v>
       </c>
       <c r="P7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q7" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -1564,26 +1564,28 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>43</v>
+      <c r="G8" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F8,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_human</v>
       </c>
       <c r="H8" s="1">
         <v>4</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>50</v>
+      <c r="I8" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H8,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_earth</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M8" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N8" s="1">
         <v>10</v>
@@ -1592,16 +1594,16 @@
         <v>100</v>
       </c>
       <c r="P8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q8" s="1">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1617,26 +1619,28 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>43</v>
+      <c r="G9" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F9,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_human</v>
       </c>
       <c r="H9" s="1">
         <v>5</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>51</v>
+      <c r="I9" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H9,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_water</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N9" s="1">
         <v>10</v>
@@ -1645,16 +1649,16 @@
         <v>100</v>
       </c>
       <c r="P9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q9" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1670,26 +1674,28 @@
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
+      <c r="G10" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F10,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_ghost</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>42</v>
+      <c r="I10" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H10,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_wind</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M10" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N10" s="1">
         <v>10</v>
@@ -1698,16 +1704,16 @@
         <v>100</v>
       </c>
       <c r="P10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q10" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -1723,26 +1729,28 @@
       <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>44</v>
+      <c r="G11" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F11,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_ghost</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
+      <c r="I11" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H11,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_fire</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M11" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -1751,16 +1759,16 @@
         <v>100</v>
       </c>
       <c r="P11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q11" s="1">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -1776,26 +1784,28 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
+      <c r="G12" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F12,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_ghost</v>
       </c>
       <c r="H12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>49</v>
+      <c r="I12" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H12,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_thunder</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M12" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N12" s="1">
         <v>10</v>
@@ -1804,16 +1814,16 @@
         <v>100</v>
       </c>
       <c r="P12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q12" s="1">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -1829,26 +1839,28 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>44</v>
+      <c r="G13" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F13,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_ghost</v>
       </c>
       <c r="H13" s="1">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>50</v>
+      <c r="I13" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H13,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_earth</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N13" s="1">
         <v>10</v>
@@ -1857,16 +1869,16 @@
         <v>100</v>
       </c>
       <c r="P13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q13" s="1">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -1882,26 +1894,28 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>44</v>
+      <c r="G14" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F14,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_ghost</v>
       </c>
       <c r="H14" s="1">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>51</v>
+      <c r="I14" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H14,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_water</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N14" s="1">
         <v>10</v>
@@ -1910,16 +1924,16 @@
         <v>100</v>
       </c>
       <c r="P14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q14" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -1935,26 +1949,28 @@
       <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
+      <c r="G15" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F15,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_god</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
+      <c r="I15" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H15,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_wind</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M15" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -1963,16 +1979,16 @@
         <v>100</v>
       </c>
       <c r="P15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q15" s="1">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -1988,26 +2004,28 @@
       <c r="F16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>45</v>
+      <c r="G16" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F16,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_god</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>48</v>
+      <c r="I16" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H16,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_fire</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M16" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N16" s="1">
         <v>10</v>
@@ -2016,16 +2034,16 @@
         <v>100</v>
       </c>
       <c r="P16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q16" s="1">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -2041,26 +2059,28 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
+      <c r="G17" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F17,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_god</v>
       </c>
       <c r="H17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>49</v>
+      <c r="I17" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H17,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_thunder</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M17" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N17" s="1">
         <v>10</v>
@@ -2069,16 +2089,16 @@
         <v>100</v>
       </c>
       <c r="P17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="1">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -2094,26 +2114,28 @@
       <c r="F18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>45</v>
+      <c r="G18" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F18,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_god</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>50</v>
+      <c r="I18" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H18,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_earth</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M18" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N18" s="1">
         <v>10</v>
@@ -2122,16 +2144,16 @@
         <v>100</v>
       </c>
       <c r="P18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q18" s="1">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -2147,26 +2169,28 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>45</v>
+      <c r="G19" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F19,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_god</v>
       </c>
       <c r="H19" s="1">
         <v>5</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>51</v>
+      <c r="I19" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H19,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_water</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M19" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N19" s="1">
         <v>10</v>
@@ -2175,16 +2199,16 @@
         <v>100</v>
       </c>
       <c r="P19" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q19" s="1">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -2200,26 +2224,28 @@
       <c r="F20" s="1">
         <v>4</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>46</v>
+      <c r="G20" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F20,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_devil</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>42</v>
+      <c r="I20" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H20,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_wind</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M20" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N20" s="1">
         <v>10</v>
@@ -2228,16 +2254,16 @@
         <v>100</v>
       </c>
       <c r="P20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="1">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -2253,26 +2279,28 @@
       <c r="F21" s="1">
         <v>4</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>46</v>
+      <c r="G21" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F21,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_devil</v>
       </c>
       <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>48</v>
+      <c r="I21" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H21,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_fire</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M21" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L21" s="1">
+        <v>5</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -2281,16 +2309,16 @@
         <v>100</v>
       </c>
       <c r="P21" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q21" s="1">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -2306,26 +2334,28 @@
       <c r="F22" s="1">
         <v>4</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>46</v>
+      <c r="G22" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F22,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_devil</v>
       </c>
       <c r="H22" s="1">
         <v>3</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>49</v>
+      <c r="I22" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H22,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_thunder</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M22" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N22" s="1">
         <v>10</v>
@@ -2334,16 +2364,16 @@
         <v>100</v>
       </c>
       <c r="P22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q22" s="1">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -2359,26 +2389,28 @@
       <c r="F23" s="1">
         <v>4</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>46</v>
+      <c r="G23" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F23,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_devil</v>
       </c>
       <c r="H23" s="1">
         <v>4</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>50</v>
+      <c r="I23" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H23,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_earth</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M23" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L23" s="1">
+        <v>5</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N23" s="1">
         <v>10</v>
@@ -2387,16 +2419,16 @@
         <v>100</v>
       </c>
       <c r="P23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q23" s="1">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -2412,26 +2444,28 @@
       <c r="F24" s="1">
         <v>4</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
+      <c r="G24" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F24,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_devil</v>
       </c>
       <c r="H24" s="1">
         <v>5</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>51</v>
+      <c r="I24" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H24,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_water</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M24" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L24" s="1">
+        <v>5</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N24" s="1">
         <v>10</v>
@@ -2440,16 +2474,16 @@
         <v>100</v>
       </c>
       <c r="P24" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q24" s="1">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -2465,26 +2499,28 @@
       <c r="F25" s="1">
         <v>5</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>47</v>
+      <c r="G25" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F25,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_goblin</v>
       </c>
       <c r="H25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>42</v>
+      <c r="I25" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H25,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_wind</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M25" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N25" s="1">
         <v>10</v>
@@ -2493,16 +2529,16 @@
         <v>100</v>
       </c>
       <c r="P25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q25" s="1">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -2518,26 +2554,28 @@
       <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>47</v>
+      <c r="G26" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F26,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_goblin</v>
       </c>
       <c r="H26" s="1">
         <v>2</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>48</v>
+      <c r="I26" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H26,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_fire</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M26" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L26" s="1">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N26" s="1">
         <v>10</v>
@@ -2546,16 +2584,16 @@
         <v>100</v>
       </c>
       <c r="P26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q26" s="1">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -2571,26 +2609,28 @@
       <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>47</v>
+      <c r="G27" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F27,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_goblin</v>
       </c>
       <c r="H27" s="1">
         <v>3</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
+      <c r="I27" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H27,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_thunder</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M27" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N27" s="1">
         <v>10</v>
@@ -2599,16 +2639,16 @@
         <v>100</v>
       </c>
       <c r="P27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q27" s="1">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -2624,26 +2664,28 @@
       <c r="F28" s="1">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>47</v>
+      <c r="G28" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F28,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_goblin</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>50</v>
+      <c r="I28" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H28,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_earth</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M28" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N28" s="1">
         <v>10</v>
@@ -2652,16 +2694,16 @@
         <v>100</v>
       </c>
       <c r="P28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q28" s="1">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -2677,26 +2719,28 @@
       <c r="F29" s="1">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>47</v>
+      <c r="G29" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F29,英雄种族!$A$2:$A$100,0),)</f>
+        <v>card_hero_race_goblin</v>
       </c>
       <c r="H29" s="1">
         <v>5</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>51</v>
+      <c r="I29" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H29,英雄五行!$A$2:$A$100,0),)</f>
+        <v>hero_element_water</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M29" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="N29" s="1">
         <v>10</v>
@@ -2705,16 +2749,16 @@
         <v>100</v>
       </c>
       <c r="P29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q29" s="1">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2723,4 +2767,191 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -124,7 +124,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-攻击，法术，护甲，魔抗，生命</t>
+攻击，法术，护甲，魔抗，生命，暴击</t>
         </r>
       </text>
     </comment>
@@ -629,10 +629,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{200,0,50,45,1830}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,6 +753,10 @@
   </si>
   <si>
     <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{200,0,50,45,1830,0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1139,7 @@
     <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -1188,7 +1188,7 @@
         <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>75</v>
@@ -1247,7 +1247,7 @@
         <v>69</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>81</v>
@@ -1338,7 +1338,7 @@
         <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>2</v>
@@ -1414,13 +1414,13 @@
         <v>43</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L5" s="1">
         <v>5</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N5" s="1">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>98</v>
@@ -1469,13 +1469,13 @@
         <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N6" s="1">
         <v>10</v>
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>98</v>
@@ -1524,13 +1524,13 @@
         <v>45</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L7" s="1">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N7" s="1">
         <v>10</v>
@@ -1545,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>98</v>
@@ -1579,13 +1579,13 @@
         <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L8" s="1">
         <v>5</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N8" s="1">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>98</v>
@@ -1634,13 +1634,13 @@
         <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L9" s="1">
         <v>5</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" s="1">
         <v>10</v>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>98</v>
@@ -1689,13 +1689,13 @@
         <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L10" s="1">
         <v>5</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N10" s="1">
         <v>10</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>98</v>
@@ -1744,13 +1744,13 @@
         <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L11" s="1">
         <v>5</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N11" s="1">
         <v>10</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>98</v>
@@ -1799,13 +1799,13 @@
         <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L12" s="1">
         <v>5</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N12" s="1">
         <v>10</v>
@@ -1820,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>98</v>
@@ -1854,13 +1854,13 @@
         <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L13" s="1">
         <v>5</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N13" s="1">
         <v>10</v>
@@ -1875,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>98</v>
@@ -1909,13 +1909,13 @@
         <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L14" s="1">
         <v>5</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N14" s="1">
         <v>10</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>98</v>
@@ -1964,13 +1964,13 @@
         <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L15" s="1">
         <v>5</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N15" s="1">
         <v>10</v>
@@ -1985,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>98</v>
@@ -2019,13 +2019,13 @@
         <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L16" s="1">
         <v>5</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N16" s="1">
         <v>10</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>98</v>
@@ -2074,13 +2074,13 @@
         <v>55</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L17" s="1">
         <v>5</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N17" s="1">
         <v>10</v>
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>98</v>
@@ -2129,13 +2129,13 @@
         <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L18" s="1">
         <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N18" s="1">
         <v>10</v>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>98</v>
@@ -2184,13 +2184,13 @@
         <v>57</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L19" s="1">
         <v>5</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N19" s="1">
         <v>10</v>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>98</v>
@@ -2239,13 +2239,13 @@
         <v>58</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L20" s="1">
         <v>5</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N20" s="1">
         <v>10</v>
@@ -2260,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>98</v>
@@ -2294,13 +2294,13 @@
         <v>59</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L21" s="1">
         <v>5</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N21" s="1">
         <v>10</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>98</v>
@@ -2349,13 +2349,13 @@
         <v>60</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L22" s="1">
         <v>5</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N22" s="1">
         <v>10</v>
@@ -2370,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>98</v>
@@ -2404,13 +2404,13 @@
         <v>61</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L23" s="1">
         <v>5</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N23" s="1">
         <v>10</v>
@@ -2425,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>98</v>
@@ -2459,13 +2459,13 @@
         <v>62</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L24" s="1">
         <v>5</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N24" s="1">
         <v>10</v>
@@ -2480,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>98</v>
@@ -2514,13 +2514,13 @@
         <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L25" s="1">
         <v>5</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N25" s="1">
         <v>10</v>
@@ -2535,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>98</v>
@@ -2569,13 +2569,13 @@
         <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L26" s="1">
         <v>5</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N26" s="1">
         <v>10</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>98</v>
@@ -2624,13 +2624,13 @@
         <v>65</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L27" s="1">
         <v>5</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N27" s="1">
         <v>10</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>98</v>
@@ -2679,13 +2679,13 @@
         <v>66</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N28" s="1">
         <v>10</v>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>98</v>
@@ -2734,13 +2734,13 @@
         <v>67</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="L29" s="1">
         <v>5</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N29" s="1">
         <v>10</v>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>98</v>
@@ -2789,10 +2789,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2800,10 +2800,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2811,10 +2811,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2822,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2833,10 +2833,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2844,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2855,10 +2855,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2885,13 +2885,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2910,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2921,10 +2921,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2932,10 +2932,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2943,10 +2943,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -756,7 +756,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{200,0,50,45,1830,0}</t>
+    <t>{200,0,50,45,1830}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1139,7 +1139,7 @@
     <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>

--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2774,7 +2774,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2873,7 +2873,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B2" sqref="B2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="card_hero" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/策划文档/数值用表/MAGIC_card_hero.xlsx
+++ b/策划文档/数值用表/MAGIC_card_hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="card_hero" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,6 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -65,6 +68,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1、男
+2、女</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,6 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -93,6 +125,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -104,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,6 +145,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -121,35 +155,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
 攻击，法术，护甲，魔抗，生命，暴击</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-{力量系数、智力系数、敏捷系数、精神系数、体质系数}
-万分比</t>
         </r>
       </text>
     </comment>
@@ -161,6 +171,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -170,14 +181,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-每次普攻恢复能量值</t>
+{力量系数、智力系数、敏捷系数、精神系数、体质系数}
+万分比</t>
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -185,6 +198,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -194,10 +208,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-万分比概率</t>
+每次普攻恢复能量值</t>
         </r>
       </text>
     </comment>
@@ -209,6 +224,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -218,6 +234,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -233,6 +250,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -242,6 +260,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -257,6 +276,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -266,6 +286,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -279,7 +300,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="134">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,14 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初始暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_int_cri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英雄被动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,7 +769,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{200,0,50,45,1830}</t>
+    <t>{200,0,50,45,1830,0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,6 +808,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -790,6 +816,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1124,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1134,17 +1161,17 @@
     <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9" style="1"/>
@@ -1155,58 +1182,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="P1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -1214,58 +1241,58 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="S2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -1285,22 +1312,22 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
       <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
       <c r="J3" s="1">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>0</v>
@@ -1332,58 +1359,58 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="N4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.15">
@@ -1399,46 +1426,46 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F5,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G5,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_human</v>
       </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H5,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I5,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_wind</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="L5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="1">
         <v>10</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>100</v>
       </c>
-      <c r="P5" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.15">
@@ -1454,46 +1481,46 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F6,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G6,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_human</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H6,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J6" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I6,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_fire</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="L6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="1">
         <v>10</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>100</v>
       </c>
-      <c r="P6" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.15">
@@ -1509,46 +1536,46 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F7,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G7,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_human</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H7,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J7" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I7,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_thunder</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="L7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O7" s="1">
         <v>10</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>100</v>
       </c>
-      <c r="P7" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.15">
@@ -1564,46 +1591,46 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F8,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G8,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_human</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H8,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I8,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_earth</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="1">
-        <v>5</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N8" s="1">
+      <c r="L8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="1">
         <v>10</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>100</v>
       </c>
-      <c r="P8" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q8" s="1">
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
@@ -1619,46 +1646,46 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F9,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G9,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_human</v>
       </c>
-      <c r="H9" s="1">
-        <v>5</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H9,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I9,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_water</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N9" s="1">
+      <c r="L9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O9" s="1">
         <v>10</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>100</v>
       </c>
-      <c r="P9" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.15">
@@ -1672,48 +1699,48 @@
         <v>13</v>
       </c>
       <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F10,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H10" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G10,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_ghost</v>
       </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H10,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I10,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_wind</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L10" s="1">
-        <v>5</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="L10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" s="1">
         <v>10</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>100</v>
       </c>
-      <c r="P10" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q10" s="1">
         <v>1</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.15">
@@ -1727,48 +1754,48 @@
         <v>14</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F11,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H11" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G11,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_ghost</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>2</v>
       </c>
-      <c r="I11" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H11,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J11" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I11,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_fire</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="1">
-        <v>5</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="L11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" s="1">
         <v>10</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>100</v>
       </c>
-      <c r="P11" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q11" s="1">
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.15">
@@ -1782,48 +1809,48 @@
         <v>15</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F12,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H12" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G12,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_ghost</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>3</v>
       </c>
-      <c r="I12" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H12,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J12" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I12,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_thunder</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="1">
+      <c r="L12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O12" s="1">
         <v>10</v>
       </c>
-      <c r="O12" s="1">
+      <c r="P12" s="1">
         <v>100</v>
       </c>
-      <c r="P12" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q12" s="1">
         <v>1</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -1837,48 +1864,48 @@
         <v>16</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F13,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H13" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G13,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_ghost</v>
       </c>
-      <c r="H13" s="1">
-        <v>4</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H13,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I13" s="1">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I13,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_earth</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" s="1">
+      <c r="L13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" s="1">
         <v>10</v>
       </c>
-      <c r="O13" s="1">
+      <c r="P13" s="1">
         <v>100</v>
       </c>
-      <c r="P13" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q13" s="1">
         <v>1</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -1892,48 +1919,48 @@
         <v>17</v>
       </c>
       <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F14,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H14" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G14,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_ghost</v>
       </c>
-      <c r="H14" s="1">
-        <v>5</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H14,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I14,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_water</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N14" s="1">
+      <c r="L14" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O14" s="1">
         <v>10</v>
       </c>
-      <c r="O14" s="1">
+      <c r="P14" s="1">
         <v>100</v>
       </c>
-      <c r="P14" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q14" s="1">
         <v>1</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.15">
@@ -1947,48 +1974,48 @@
         <v>18</v>
       </c>
       <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="G15" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F15,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H15" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G15,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_god</v>
       </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H15,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I15,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_wind</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" s="1">
-        <v>5</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N15" s="1">
+      <c r="L15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" s="1">
         <v>10</v>
       </c>
-      <c r="O15" s="1">
+      <c r="P15" s="1">
         <v>100</v>
       </c>
-      <c r="P15" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q15" s="1">
         <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.15">
@@ -2002,48 +2029,48 @@
         <v>19</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>3</v>
       </c>
-      <c r="G16" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F16,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H16" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G16,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_god</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H16,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J16" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I16,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_fire</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" s="1">
-        <v>5</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N16" s="1">
+      <c r="L16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O16" s="1">
         <v>10</v>
       </c>
-      <c r="O16" s="1">
+      <c r="P16" s="1">
         <v>100</v>
       </c>
-      <c r="P16" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q16" s="1">
         <v>1</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
@@ -2057,48 +2084,48 @@
         <v>20</v>
       </c>
       <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
         <v>3</v>
       </c>
-      <c r="G17" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F17,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H17" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G17,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_god</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="I17" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H17,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J17" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I17,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_thunder</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L17" s="1">
-        <v>5</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N17" s="1">
+      <c r="L17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="1">
         <v>10</v>
       </c>
-      <c r="O17" s="1">
+      <c r="P17" s="1">
         <v>100</v>
       </c>
-      <c r="P17" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q17" s="1">
         <v>1</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
@@ -2112,48 +2139,48 @@
         <v>21</v>
       </c>
       <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
         <v>3</v>
       </c>
-      <c r="G18" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F18,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H18" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G18,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_god</v>
       </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H18,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I18,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_earth</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L18" s="1">
-        <v>5</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N18" s="1">
+      <c r="L18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18" s="1">
         <v>10</v>
       </c>
-      <c r="O18" s="1">
+      <c r="P18" s="1">
         <v>100</v>
       </c>
-      <c r="P18" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q18" s="1">
         <v>1</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
@@ -2167,48 +2194,48 @@
         <v>22</v>
       </c>
       <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>3</v>
       </c>
-      <c r="G19" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F19,英雄种族!$A$2:$A$100,0),)</f>
+      <c r="H19" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G19,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_god</v>
       </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H19,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I19,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_water</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L19" s="1">
-        <v>5</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N19" s="1">
+      <c r="L19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19" s="1">
         <v>10</v>
       </c>
-      <c r="O19" s="1">
+      <c r="P19" s="1">
         <v>100</v>
       </c>
-      <c r="P19" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q19" s="1">
         <v>1</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
@@ -2222,48 +2249,48 @@
         <v>23</v>
       </c>
       <c r="F20" s="1">
-        <v>4</v>
-      </c>
-      <c r="G20" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F20,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>4</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G20,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_devil</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H20,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I20,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_wind</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L20" s="1">
-        <v>5</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N20" s="1">
+      <c r="L20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20" s="1">
         <v>10</v>
       </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
         <v>100</v>
       </c>
-      <c r="P20" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q20" s="1">
         <v>1</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
@@ -2277,48 +2304,48 @@
         <v>24</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
-      </c>
-      <c r="G21" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F21,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>4</v>
+      </c>
+      <c r="H21" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G21,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_devil</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H21,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J21" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I21,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_fire</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N21" s="1">
+      <c r="L21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O21" s="1">
         <v>10</v>
       </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
         <v>100</v>
       </c>
-      <c r="P21" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q21" s="1">
         <v>1</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
@@ -2332,48 +2359,48 @@
         <v>25</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F22,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>4</v>
+      </c>
+      <c r="H22" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G22,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_devil</v>
       </c>
-      <c r="H22" s="1">
+      <c r="I22" s="1">
         <v>3</v>
       </c>
-      <c r="I22" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H22,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J22" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I22,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_thunder</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L22" s="1">
-        <v>5</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N22" s="1">
+      <c r="L22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="1">
+        <v>5</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="1">
         <v>10</v>
       </c>
-      <c r="O22" s="1">
+      <c r="P22" s="1">
         <v>100</v>
       </c>
-      <c r="P22" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q22" s="1">
         <v>1</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -2387,48 +2414,48 @@
         <v>26</v>
       </c>
       <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F23,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G23,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_devil</v>
       </c>
-      <c r="H23" s="1">
-        <v>4</v>
-      </c>
-      <c r="I23" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H23,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I23" s="1">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I23,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_earth</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="1">
-        <v>5</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N23" s="1">
+      <c r="L23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M23" s="1">
+        <v>5</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O23" s="1">
         <v>10</v>
       </c>
-      <c r="O23" s="1">
+      <c r="P23" s="1">
         <v>100</v>
       </c>
-      <c r="P23" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q23" s="1">
         <v>1</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -2442,48 +2469,48 @@
         <v>27</v>
       </c>
       <c r="F24" s="1">
-        <v>4</v>
-      </c>
-      <c r="G24" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F24,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G24,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_devil</v>
       </c>
-      <c r="H24" s="1">
-        <v>5</v>
-      </c>
-      <c r="I24" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H24,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I24" s="1">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I24,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_water</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="1">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N24" s="1">
+      <c r="L24" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M24" s="1">
+        <v>5</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O24" s="1">
         <v>10</v>
       </c>
-      <c r="O24" s="1">
+      <c r="P24" s="1">
         <v>100</v>
       </c>
-      <c r="P24" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q24" s="1">
         <v>1</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
@@ -2497,48 +2524,48 @@
         <v>28</v>
       </c>
       <c r="F25" s="1">
-        <v>5</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F25,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>5</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G25,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_goblin</v>
       </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H25,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I25,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_wind</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L25" s="1">
-        <v>5</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N25" s="1">
+      <c r="L25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="1">
+        <v>5</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="1">
         <v>10</v>
       </c>
-      <c r="O25" s="1">
+      <c r="P25" s="1">
         <v>100</v>
       </c>
-      <c r="P25" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q25" s="1">
         <v>1</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -2552,48 +2579,48 @@
         <v>29</v>
       </c>
       <c r="F26" s="1">
-        <v>5</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F26,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>5</v>
+      </c>
+      <c r="H26" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G26,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_goblin</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="I26" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H26,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J26" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I26,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_fire</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L26" s="1">
-        <v>5</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N26" s="1">
+      <c r="L26" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M26" s="1">
+        <v>5</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O26" s="1">
         <v>10</v>
       </c>
-      <c r="O26" s="1">
+      <c r="P26" s="1">
         <v>100</v>
       </c>
-      <c r="P26" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q26" s="1">
         <v>1</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -2607,48 +2634,48 @@
         <v>30</v>
       </c>
       <c r="F27" s="1">
-        <v>5</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F27,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>5</v>
+      </c>
+      <c r="H27" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G27,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_goblin</v>
       </c>
-      <c r="H27" s="1">
+      <c r="I27" s="1">
         <v>3</v>
       </c>
-      <c r="I27" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H27,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="J27" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I27,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_thunder</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="1">
-        <v>5</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N27" s="1">
+      <c r="L27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M27" s="1">
+        <v>5</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O27" s="1">
         <v>10</v>
       </c>
-      <c r="O27" s="1">
+      <c r="P27" s="1">
         <v>100</v>
       </c>
-      <c r="P27" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q27" s="1">
         <v>1</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -2662,48 +2689,48 @@
         <v>31</v>
       </c>
       <c r="F28" s="1">
-        <v>5</v>
-      </c>
-      <c r="G28" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F28,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G28,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_goblin</v>
       </c>
-      <c r="H28" s="1">
-        <v>4</v>
-      </c>
-      <c r="I28" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H28,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I28,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_earth</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="1">
-        <v>5</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N28" s="1">
+      <c r="L28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M28" s="1">
+        <v>5</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O28" s="1">
         <v>10</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="1">
         <v>100</v>
       </c>
-      <c r="P28" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -2717,48 +2744,48 @@
         <v>32</v>
       </c>
       <c r="F29" s="1">
-        <v>5</v>
-      </c>
-      <c r="G29" s="1" t="str">
-        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($F29,英雄种族!$A$2:$A$100,0),)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f ca="1">OFFSET(英雄种族!$C$1,MATCH($G29,英雄种族!$A$2:$A$100,0),)</f>
         <v>card_hero_race_goblin</v>
       </c>
-      <c r="H29" s="1">
-        <v>5</v>
-      </c>
-      <c r="I29" s="1" t="str">
-        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($H29,英雄五行!$A$2:$A$100,0),)</f>
+      <c r="I29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f ca="1">OFFSET(英雄五行!$C$1,MATCH($I29,英雄五行!$A$2:$A$100,0),)</f>
         <v>hero_element_water</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="L29" s="1">
-        <v>5</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N29" s="1">
+      <c r="L29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M29" s="1">
+        <v>5</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O29" s="1">
         <v>10</v>
       </c>
-      <c r="O29" s="1">
+      <c r="P29" s="1">
         <v>100</v>
       </c>
-      <c r="P29" s="1">
-        <v>1000</v>
-      </c>
       <c r="Q29" s="1">
         <v>1</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2773,7 +2800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
@@ -2789,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2800,10 +2827,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2811,10 +2838,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2822,10 +2849,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2833,10 +2860,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2844,10 +2871,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2855,10 +2882,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2885,13 +2912,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2899,10 +2926,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2910,10 +2937,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2921,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2932,10 +2959,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2943,10 +2970,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
